--- a/도민참여_C21(전야제).xlsx
+++ b/도민참여_C21(전야제).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="2655" yWindow="570" windowWidth="25875" windowHeight="10470" activeTab="2"/>
@@ -9160,7 +9160,7 @@
   <dimension ref="A1:Q452"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
